--- a/disser1_yz.xlsx
+++ b/disser1_yz.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Рабочий стол\PDN\Dissertation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Рабочий стол\ПАВ\PDN\Dissertation\Jupyter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -103,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -196,6 +196,17 @@
       <top style="hair">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -221,7 +232,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -246,6 +257,10 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -535,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -722,6 +737,14 @@
         <v>65.099999999999994</v>
       </c>
     </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>44542</v>
+      </c>
+      <c r="B23" s="10">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
